--- a/data/electricity-intensive-industry/energy-intensive-industries.xlsx
+++ b/data/electricity-intensive-industry/energy-intensive-industries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trtim/Develop/resource-potentials/data/electricity-intensive-industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{091CD36C-9039-AC42-9FE6-394DFB372A32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B491DA1E-6017-4145-BDCB-AE9737583872}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="460" windowWidth="31060" windowHeight="19740" tabRatio="672" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="460" windowWidth="31060" windowHeight="19740" tabRatio="672" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total steel" sheetId="3" r:id="rId1"/>
@@ -6021,9 +6021,6 @@
     <t>45°7′20″N 25°25′6″E</t>
   </si>
   <si>
-    <t>42°32′40″N 6°46′53″E</t>
-  </si>
-  <si>
     <t>48°40′34″N 10°09′16″E</t>
   </si>
   <si>
@@ -7039,6 +7036,9 @@
   </si>
   <si>
     <t>42°31'7"N 0°22'6"W</t>
+  </si>
+  <si>
+    <t>42.553405N -6.769661E</t>
   </si>
 </sst>
 </file>
@@ -9561,13 +9561,13 @@
         <v>862</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>1135</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>1140</v>
@@ -9723,14 +9723,14 @@
         <v>961.99454523840961</v>
       </c>
       <c r="J4" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K4">
         <f>G40*1000000*K3/1000000</f>
         <v>97.749999999999972</v>
       </c>
       <c r="L4" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -10073,7 +10073,7 @@
         <v>320.23776624508753</v>
       </c>
       <c r="J12" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="K12" s="15">
         <f>G40*K3/(8760)*1*K2*1000000</f>
@@ -10136,7 +10136,7 @@
         <v>870</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -10177,13 +10177,13 @@
         <v>256.66577012131995</v>
       </c>
       <c r="J14" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="K14">
         <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -11213,7 +11213,7 @@
       <c r="C1" s="30"/>
       <c r="D1" s="32"/>
       <c r="E1" s="33" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
@@ -11222,69 +11222,69 @@
     </row>
     <row r="2" spans="1:18" ht="22">
       <c r="A2" s="34" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>2047</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>2048</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>2049</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>2050</v>
-      </c>
       <c r="E2" s="37" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>2052</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="G2" s="38" t="s">
         <v>2053</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="38" t="s">
         <v>2054</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="I2" s="36" t="s">
         <v>2055</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>2056</v>
-      </c>
       <c r="K2" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="L2" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="M2" t="s">
+        <v>2221</v>
+      </c>
+      <c r="N2" t="s">
         <v>2222</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>2223</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>2224</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>2225</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>2226</v>
-      </c>
-      <c r="R2" t="s">
-        <v>2227</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="39" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B3" s="40">
         <v>1</v>
       </c>
       <c r="C3" s="41" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>2058</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>2059</v>
       </c>
       <c r="E3" s="40">
         <v>70</v>
@@ -11329,7 +11329,7 @@
     </row>
     <row r="4" spans="1:18" ht="21" thickBot="1">
       <c r="A4" s="44" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -11380,16 +11380,16 @@
     </row>
     <row r="5" spans="1:18" ht="17" thickTop="1">
       <c r="A5" s="39" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B5" s="40">
         <v>3</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E5" s="40">
         <v>460</v>
@@ -11436,16 +11436,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="39" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B6" s="40">
         <v>4</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E6" s="40">
         <v>174</v>
@@ -11490,16 +11490,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="39" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B7" s="40">
         <v>5</v>
       </c>
       <c r="C7" s="41" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>2064</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>2065</v>
       </c>
       <c r="E7" s="40">
         <v>400</v>
@@ -11546,7 +11546,7 @@
     </row>
     <row r="8" spans="1:18" ht="21" thickBot="1">
       <c r="A8" s="44" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -11597,16 +11597,16 @@
     </row>
     <row r="9" spans="1:18" ht="21" thickTop="1">
       <c r="A9" s="49" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B9" s="40">
         <v>6</v>
       </c>
       <c r="C9" s="41" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>2068</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>2069</v>
       </c>
       <c r="E9" s="40">
         <v>135</v>
@@ -11651,16 +11651,16 @@
     </row>
     <row r="10" spans="1:18" ht="20">
       <c r="A10" s="49" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B10" s="40">
         <v>7</v>
       </c>
       <c r="C10" s="41" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>2070</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>2071</v>
       </c>
       <c r="E10" s="40">
         <v>61</v>
@@ -11705,7 +11705,7 @@
     </row>
     <row r="11" spans="1:18" ht="31" thickBot="1">
       <c r="A11" s="50" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
@@ -11756,16 +11756,16 @@
     </row>
     <row r="12" spans="1:18" ht="17" thickTop="1">
       <c r="A12" s="39" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B12" s="40">
         <v>8</v>
       </c>
       <c r="C12" s="41" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>2074</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>2075</v>
       </c>
       <c r="E12" s="40">
         <v>40</v>
@@ -11810,16 +11810,16 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="39" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B13" s="40">
         <v>9</v>
       </c>
       <c r="C13" s="41" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>2076</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>2077</v>
       </c>
       <c r="E13" s="40">
         <v>75</v>
@@ -11864,7 +11864,7 @@
     </row>
     <row r="14" spans="1:18" ht="21" thickBot="1">
       <c r="A14" s="44" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
@@ -11915,16 +11915,16 @@
     </row>
     <row r="15" spans="1:18" ht="17" thickTop="1">
       <c r="A15" s="39" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B15" s="40">
         <v>10</v>
       </c>
       <c r="C15" s="41" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D15" s="41" t="s">
         <v>2080</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>2081</v>
       </c>
       <c r="E15" s="40">
         <v>72</v>
@@ -11969,16 +11969,16 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="39" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B16" s="40">
         <v>11</v>
       </c>
       <c r="C16" s="41" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>2082</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>2083</v>
       </c>
       <c r="E16" s="40">
         <v>170</v>
@@ -12023,16 +12023,16 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="51" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B17" s="52">
         <v>12</v>
       </c>
       <c r="C17" s="53" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D17" s="53" t="s">
         <v>2084</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>2085</v>
       </c>
       <c r="E17" s="52">
         <v>340</v>
@@ -12079,16 +12079,16 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="39" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B18" s="40">
         <v>13</v>
       </c>
       <c r="C18" s="41" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D18" s="41" t="s">
         <v>2086</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>2087</v>
       </c>
       <c r="E18" s="40">
         <v>73</v>
@@ -12133,16 +12133,16 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="51" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B19" s="52">
         <v>14</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E19" s="52">
         <v>363</v>
@@ -12189,16 +12189,16 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="39" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B20" s="40">
         <v>15</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="E20" s="40">
         <v>20</v>
@@ -12285,16 +12285,16 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="39" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B22" s="40">
         <v>16</v>
       </c>
       <c r="C22" s="41" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D22" s="41" t="s">
         <v>2090</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>2091</v>
       </c>
       <c r="E22" s="40">
         <v>42</v>
@@ -12339,16 +12339,16 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="39" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B23" s="40">
         <v>17</v>
       </c>
       <c r="C23" s="41" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>2092</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>2093</v>
       </c>
       <c r="E23" s="40">
         <v>23</v>
@@ -12393,16 +12393,16 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="39" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B24" s="40">
         <v>18</v>
       </c>
       <c r="C24" s="41" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D24" s="41" t="s">
         <v>2094</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>2095</v>
       </c>
       <c r="E24" s="40">
         <v>360</v>
@@ -12447,16 +12447,16 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="39" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B25" s="40">
         <v>19</v>
       </c>
       <c r="C25" s="41" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D25" s="41" t="s">
         <v>2096</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>2097</v>
       </c>
       <c r="E25" s="40">
         <v>18</v>
@@ -12501,7 +12501,7 @@
     </row>
     <row r="26" spans="1:18" ht="21" thickBot="1">
       <c r="A26" s="44" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
@@ -12552,16 +12552,16 @@
     </row>
     <row r="27" spans="1:18" ht="17" thickTop="1">
       <c r="A27" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B27" s="40">
         <v>20</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="E27" s="40">
         <v>385</v>
@@ -12608,16 +12608,16 @@
     </row>
     <row r="28" spans="1:18" ht="20">
       <c r="A28" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B28" s="40">
         <v>21</v>
       </c>
       <c r="C28" s="41" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>2101</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>2102</v>
       </c>
       <c r="E28" s="40">
         <v>480</v>
@@ -12664,16 +12664,16 @@
     </row>
     <row r="29" spans="1:18" ht="20">
       <c r="A29" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B29" s="40">
         <v>22</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="E29" s="40">
         <v>360</v>
@@ -12718,16 +12718,16 @@
     </row>
     <row r="30" spans="1:18" ht="20">
       <c r="A30" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B30" s="40">
         <v>23</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E30" s="40">
         <v>260</v>
@@ -12772,16 +12772,16 @@
     </row>
     <row r="31" spans="1:18" ht="20">
       <c r="A31" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B31" s="40">
         <v>24</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="E31" s="40">
         <v>210</v>
@@ -12826,16 +12826,16 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B32" s="40">
         <v>25</v>
       </c>
       <c r="C32" s="41" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D32" s="41" t="s">
         <v>2106</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>2107</v>
       </c>
       <c r="E32" s="40">
         <v>250</v>
@@ -12880,16 +12880,16 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B33" s="40">
         <v>26</v>
       </c>
       <c r="C33" s="41" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D33" s="41" t="s">
         <v>2108</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>2109</v>
       </c>
       <c r="E33" s="40">
         <v>250</v>
@@ -12934,16 +12934,16 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B34" s="40">
         <v>27</v>
       </c>
       <c r="C34" s="41" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D34" s="41" t="s">
         <v>2110</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>2111</v>
       </c>
       <c r="E34" s="40">
         <v>45</v>
@@ -12988,13 +12988,13 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B35" s="40">
         <v>28</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D35" s="41" t="s">
         <v>1016</v>
@@ -13126,7 +13126,7 @@
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="E38" s="33" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="32"/>
@@ -13163,31 +13163,31 @@
     </row>
     <row r="39" spans="1:18" ht="22">
       <c r="A39" s="34" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>2047</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="C39" s="36" t="s">
         <v>2048</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="D39" s="36" t="s">
         <v>2049</v>
       </c>
-      <c r="D39" s="36" t="s">
-        <v>2050</v>
-      </c>
       <c r="E39" s="37" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F39" s="36" t="s">
         <v>2052</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="G39" s="61" t="s">
         <v>2053</v>
       </c>
-      <c r="G39" s="61" t="s">
+      <c r="H39" s="38" t="s">
         <v>2054</v>
       </c>
-      <c r="H39" s="38" t="s">
+      <c r="I39" s="36" t="s">
         <v>2055</v>
-      </c>
-      <c r="I39" s="36" t="s">
-        <v>2056</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="1"/>
@@ -13220,16 +13220,16 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B40" s="40">
         <v>29</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="E40" s="40">
         <v>125</v>
@@ -13274,16 +13274,16 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B41" s="40">
         <v>30</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="E41" s="40">
         <v>99</v>
@@ -13328,16 +13328,16 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B42" s="40">
         <v>31</v>
       </c>
       <c r="C42" s="41" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D42" s="41" t="s">
         <v>2114</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>2115</v>
       </c>
       <c r="E42" s="40">
         <v>137</v>
@@ -13382,16 +13382,16 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B43" s="40">
         <v>33</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D43" s="41" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E43" s="40">
         <v>167</v>
@@ -13436,16 +13436,16 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B44" s="40">
         <v>34</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E44" s="40">
         <v>220</v>
@@ -13492,16 +13492,16 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B45" s="40">
         <v>35</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E45" s="40">
         <v>260</v>
@@ -13546,16 +13546,16 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="39" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B46" s="40">
         <v>36</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="E46" s="40">
         <v>180</v>
@@ -13600,16 +13600,16 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="51" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B47" s="52">
         <v>37</v>
       </c>
       <c r="C47" s="53" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D47" s="53" t="s">
         <v>2120</v>
-      </c>
-      <c r="D47" s="53" t="s">
-        <v>2121</v>
       </c>
       <c r="E47" s="52">
         <v>50</v>
@@ -13654,16 +13654,16 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="51" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B48" s="52">
         <v>96</v>
       </c>
       <c r="C48" s="53" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D48" s="53" t="s">
         <v>2122</v>
-      </c>
-      <c r="D48" s="53" t="s">
-        <v>2123</v>
       </c>
       <c r="E48" s="52">
         <v>15</v>
@@ -13708,7 +13708,7 @@
     </row>
     <row r="49" spans="1:18" ht="21" thickBot="1">
       <c r="A49" s="44" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B49" s="45"/>
       <c r="C49" s="45"/>
@@ -13759,16 +13759,16 @@
     </row>
     <row r="50" spans="1:18" ht="17" thickTop="1">
       <c r="A50" s="39" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B50" s="40">
         <v>94</v>
       </c>
       <c r="C50" s="41" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D50" s="41" t="s">
         <v>2126</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>2127</v>
       </c>
       <c r="E50" s="40">
         <v>4</v>
@@ -13813,16 +13813,16 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="39" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B51" s="40">
         <v>95</v>
       </c>
       <c r="C51" s="41" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D51" s="41" t="s">
         <v>2128</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>2129</v>
       </c>
       <c r="E51" s="40">
         <v>20</v>
@@ -13867,7 +13867,7 @@
     </row>
     <row r="52" spans="1:18" ht="21" thickBot="1">
       <c r="A52" s="44" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B52" s="45"/>
       <c r="C52" s="45"/>
@@ -13918,16 +13918,16 @@
     </row>
     <row r="53" spans="1:18" ht="17" thickTop="1">
       <c r="A53" s="39" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B53" s="40">
         <v>39</v>
       </c>
       <c r="C53" s="41" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D53" s="41" t="s">
         <v>2132</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>2133</v>
       </c>
       <c r="E53" s="40">
         <v>323</v>
@@ -13974,7 +13974,7 @@
     </row>
     <row r="54" spans="1:18" ht="21" thickBot="1">
       <c r="A54" s="44" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B54" s="45"/>
       <c r="C54" s="45"/>
@@ -14025,16 +14025,16 @@
     </row>
     <row r="55" spans="1:18" ht="17" thickTop="1">
       <c r="A55" s="39" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B55" s="40">
         <v>40</v>
       </c>
       <c r="C55" s="41" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D55" s="41" t="s">
         <v>2136</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>2137</v>
       </c>
       <c r="E55" s="40">
         <v>9</v>
@@ -14079,7 +14079,7 @@
     </row>
     <row r="56" spans="1:18" ht="21" thickBot="1">
       <c r="A56" s="44" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B56" s="45"/>
       <c r="C56" s="45"/>
@@ -14130,16 +14130,16 @@
     </row>
     <row r="57" spans="1:18" ht="17" thickTop="1">
       <c r="A57" s="39" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B57" s="40">
         <v>41</v>
       </c>
       <c r="C57" s="41" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D57" s="41" t="s">
         <v>2140</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>2141</v>
       </c>
       <c r="E57" s="40">
         <v>39</v>
@@ -14184,16 +14184,16 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="39" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B58" s="40">
         <v>42</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E58" s="40">
         <v>25</v>
@@ -14238,16 +14238,16 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="39" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B59" s="40">
         <v>44</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D59" s="41" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E59" s="40">
         <v>25</v>
@@ -14292,16 +14292,16 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="39" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B60" s="40">
         <v>49</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D60" s="41" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E60" s="40">
         <v>150</v>
@@ -14346,16 +14346,16 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="39" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B61" s="40">
         <v>50</v>
       </c>
       <c r="C61" s="41" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D61" s="41" t="s">
         <v>2145</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>2146</v>
       </c>
       <c r="E61" s="40">
         <v>42</v>
@@ -14400,16 +14400,16 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="39" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B62" s="40">
         <v>93</v>
       </c>
       <c r="C62" s="41" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D62" s="41" t="s">
         <v>2147</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>2148</v>
       </c>
       <c r="E62" s="40">
         <v>20</v>
@@ -14454,7 +14454,7 @@
     </row>
     <row r="63" spans="1:18" ht="21" thickBot="1">
       <c r="A63" s="62" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
@@ -14505,16 +14505,16 @@
     </row>
     <row r="64" spans="1:18" ht="21" thickTop="1">
       <c r="A64" s="49" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B64" s="40">
         <v>51</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E64" s="40">
         <v>637</v>
@@ -14559,13 +14559,13 @@
     </row>
     <row r="65" spans="1:18" ht="20">
       <c r="A65" s="49" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B65" s="40">
         <v>52</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D65" s="41" t="s">
         <v>1047</v>
@@ -14613,16 +14613,16 @@
     </row>
     <row r="66" spans="1:18" ht="20">
       <c r="A66" s="63" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B66" s="52">
         <v>54</v>
       </c>
       <c r="C66" s="53" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D66" s="53" t="s">
         <v>2152</v>
-      </c>
-      <c r="D66" s="53" t="s">
-        <v>2153</v>
       </c>
       <c r="E66" s="52">
         <v>89</v>
@@ -14667,7 +14667,7 @@
     </row>
     <row r="67" spans="1:18" ht="31" thickBot="1">
       <c r="A67" s="50" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B67" s="45"/>
       <c r="C67" s="45"/>
@@ -14718,16 +14718,16 @@
     </row>
     <row r="68" spans="1:18" ht="17" thickTop="1">
       <c r="A68" s="39" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B68" s="40">
         <v>55</v>
       </c>
       <c r="C68" s="41" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D68" s="41" t="s">
         <v>2156</v>
-      </c>
-      <c r="D68" s="41" t="s">
-        <v>2157</v>
       </c>
       <c r="E68" s="40">
         <v>45</v>
@@ -14772,16 +14772,16 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="51" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B69" s="52">
         <v>56</v>
       </c>
       <c r="C69" s="53" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D69" s="53" t="s">
         <v>2158</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>2159</v>
       </c>
       <c r="E69" s="52">
         <v>10</v>
@@ -14826,16 +14826,16 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="39" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B70" s="40">
         <v>57</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E70" s="40">
         <v>260</v>
@@ -14880,7 +14880,7 @@
     </row>
     <row r="71" spans="1:18" ht="21" thickBot="1">
       <c r="A71" s="44" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B71" s="45"/>
       <c r="C71" s="45"/>
@@ -14931,16 +14931,16 @@
     </row>
     <row r="72" spans="1:18" ht="17" thickTop="1">
       <c r="A72" s="39" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B72" s="40">
         <v>58</v>
       </c>
       <c r="C72" s="41" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D72" s="41" t="s">
         <v>2163</v>
-      </c>
-      <c r="D72" s="41" t="s">
-        <v>2164</v>
       </c>
       <c r="E72" s="40">
         <v>125</v>
@@ -15065,13 +15065,13 @@
     </row>
     <row r="75" spans="1:18" ht="22">
       <c r="A75" s="93" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B75" s="93"/>
       <c r="C75" s="93"/>
       <c r="D75" s="93"/>
       <c r="E75" s="65" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="F75" s="30"/>
       <c r="G75" s="32"/>
@@ -15108,25 +15108,25 @@
     </row>
     <row r="76" spans="1:18" ht="20">
       <c r="A76" s="94" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B76" s="94"/>
       <c r="C76" s="94"/>
       <c r="D76" s="94"/>
       <c r="E76" s="66" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F76" s="36" t="s">
         <v>2052</v>
       </c>
-      <c r="F76" s="36" t="s">
+      <c r="G76" s="61" t="s">
         <v>2053</v>
       </c>
-      <c r="G76" s="61" t="s">
+      <c r="H76" s="38" t="s">
         <v>2054</v>
       </c>
-      <c r="H76" s="38" t="s">
+      <c r="I76" s="36" t="s">
         <v>2055</v>
-      </c>
-      <c r="I76" s="36" t="s">
-        <v>2056</v>
       </c>
       <c r="L76">
         <f t="shared" si="5"/>
@@ -15159,16 +15159,16 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="39" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B77" s="40">
         <v>60</v>
       </c>
       <c r="C77" s="41" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D77" s="41" t="s">
         <v>2167</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>2168</v>
       </c>
       <c r="E77" s="40">
         <v>214</v>
@@ -15213,7 +15213,7 @@
     </row>
     <row r="78" spans="1:18" ht="21" thickBot="1">
       <c r="A78" s="44" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B78" s="45"/>
       <c r="C78" s="45"/>
@@ -15264,16 +15264,16 @@
     </row>
     <row r="79" spans="1:18" ht="17" thickTop="1">
       <c r="A79" s="39" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B79" s="40">
         <v>61</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E79" s="40">
         <v>26</v>
@@ -15318,16 +15318,16 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="39" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B80" s="40">
         <v>62</v>
       </c>
       <c r="C80" s="41" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D80" s="41" t="s">
         <v>2172</v>
-      </c>
-      <c r="D80" s="41" t="s">
-        <v>2173</v>
       </c>
       <c r="E80" s="40">
         <v>116</v>
@@ -15374,7 +15374,7 @@
     </row>
     <row r="81" spans="1:18" ht="21" thickBot="1">
       <c r="A81" s="44" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="B81" s="45"/>
       <c r="C81" s="45"/>
@@ -15425,16 +15425,16 @@
     </row>
     <row r="82" spans="1:18" ht="17" thickTop="1">
       <c r="A82" s="51" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B82" s="52">
         <v>91</v>
       </c>
       <c r="C82" s="53" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D82" s="53" t="s">
         <v>2176</v>
-      </c>
-      <c r="D82" s="53" t="s">
-        <v>2177</v>
       </c>
       <c r="E82" s="52">
         <v>291</v>
@@ -15481,16 +15481,16 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="39" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B83" s="40">
         <v>92</v>
       </c>
       <c r="C83" s="41" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D83" s="41" t="s">
         <v>2178</v>
-      </c>
-      <c r="D83" s="41" t="s">
-        <v>2179</v>
       </c>
       <c r="E83" s="40">
         <v>93</v>
@@ -15535,7 +15535,7 @@
     </row>
     <row r="84" spans="1:18" ht="21" thickBot="1">
       <c r="A84" s="44" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B84" s="45"/>
       <c r="C84" s="45"/>
@@ -15586,16 +15586,16 @@
     </row>
     <row r="85" spans="1:18" ht="21" thickTop="1">
       <c r="A85" s="63" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B85" s="52">
         <v>63</v>
       </c>
       <c r="C85" s="53" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D85" s="53" t="s">
         <v>2182</v>
-      </c>
-      <c r="D85" s="53" t="s">
-        <v>2183</v>
       </c>
       <c r="E85" s="52">
         <v>76</v>
@@ -15640,7 +15640,7 @@
     </row>
     <row r="86" spans="1:18" ht="31" thickBot="1">
       <c r="A86" s="50" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
@@ -15691,16 +15691,16 @@
     </row>
     <row r="87" spans="1:18" ht="17" thickTop="1">
       <c r="A87" s="51" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B87" s="52">
         <v>88</v>
       </c>
       <c r="C87" s="53" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D87" s="53" t="s">
         <v>2186</v>
-      </c>
-      <c r="D87" s="53" t="s">
-        <v>2187</v>
       </c>
       <c r="E87" s="52">
         <v>16</v>
@@ -15745,7 +15745,7 @@
     </row>
     <row r="88" spans="1:18" ht="21" thickBot="1">
       <c r="A88" s="44" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B88" s="45"/>
       <c r="C88" s="45"/>
@@ -15796,16 +15796,16 @@
     </row>
     <row r="89" spans="1:18" ht="17" thickTop="1">
       <c r="A89" s="39" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B89" s="40">
         <v>64</v>
       </c>
       <c r="C89" s="41" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D89" s="41" t="s">
         <v>2190</v>
-      </c>
-      <c r="D89" s="41" t="s">
-        <v>2191</v>
       </c>
       <c r="E89" s="40">
         <v>48</v>
@@ -15850,16 +15850,16 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="39" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B90" s="40">
         <v>65</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D90" s="41" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="E90" s="40">
         <v>30</v>
@@ -15904,16 +15904,16 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="39" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B91" s="40">
         <v>66</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D91" s="41" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E91" s="40">
         <v>190</v>
@@ -15960,16 +15960,16 @@
     </row>
     <row r="92" spans="1:18" ht="20">
       <c r="A92" s="39" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B92" s="40">
         <v>67</v>
       </c>
       <c r="C92" s="41" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D92" s="41" t="s">
         <v>2194</v>
-      </c>
-      <c r="D92" s="41" t="s">
-        <v>2195</v>
       </c>
       <c r="E92" s="40">
         <v>15</v>
@@ -16014,16 +16014,16 @@
     </row>
     <row r="93" spans="1:18" ht="20">
       <c r="A93" s="39" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B93" s="40">
         <v>68</v>
       </c>
       <c r="C93" s="41" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D93" s="41" t="s">
         <v>2196</v>
-      </c>
-      <c r="D93" s="41" t="s">
-        <v>2197</v>
       </c>
       <c r="E93" s="40">
         <v>34</v>
@@ -16068,16 +16068,16 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="39" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B94" s="40">
         <v>69</v>
       </c>
       <c r="C94" s="41" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D94" s="41" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="E94" s="40">
         <v>88</v>
@@ -16122,16 +16122,16 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="39" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B95" s="40">
         <v>70</v>
       </c>
       <c r="C95" s="41" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D95" s="41" t="s">
         <v>2199</v>
-      </c>
-      <c r="D95" s="41" t="s">
-        <v>2200</v>
       </c>
       <c r="E95" s="40">
         <v>31</v>
@@ -16176,16 +16176,16 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="39" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B96" s="40">
         <v>71</v>
       </c>
       <c r="C96" s="41" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D96" s="41" t="s">
         <v>2201</v>
-      </c>
-      <c r="D96" s="41" t="s">
-        <v>2202</v>
       </c>
       <c r="E96" s="40">
         <v>218</v>
@@ -16230,16 +16230,16 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="39" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B97" s="40">
         <v>72</v>
       </c>
       <c r="C97" s="41" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D97" s="41" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="E97" s="40">
         <v>63</v>
@@ -16284,7 +16284,7 @@
     </row>
     <row r="98" spans="1:18" ht="21" thickBot="1">
       <c r="A98" s="62" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="B98" s="45"/>
       <c r="C98" s="45"/>
@@ -16335,16 +16335,16 @@
     </row>
     <row r="99" spans="1:18" ht="17" thickTop="1">
       <c r="A99" s="39" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B99" s="40">
         <v>75</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E99" s="40">
         <v>120</v>
@@ -16389,7 +16389,7 @@
     </row>
     <row r="100" spans="1:18" ht="21" thickBot="1">
       <c r="A100" s="44" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
@@ -16440,16 +16440,16 @@
     </row>
     <row r="101" spans="1:18" ht="17" thickTop="1">
       <c r="A101" s="49" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="B101" s="40">
         <v>77</v>
       </c>
       <c r="C101" s="41" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D101" s="41" t="s">
         <v>2209</v>
-      </c>
-      <c r="D101" s="41" t="s">
-        <v>2210</v>
       </c>
       <c r="E101" s="40">
         <v>27</v>
@@ -16461,7 +16461,7 @@
       <c r="H101" s="42"/>
       <c r="I101" s="43"/>
       <c r="K101" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="L101" t="str">
         <f t="shared" si="5"/>
@@ -16494,7 +16494,7 @@
     </row>
     <row r="102" spans="1:18" ht="21" thickBot="1">
       <c r="A102" s="44" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="B102" s="45"/>
       <c r="C102" s="45"/>
@@ -16545,16 +16545,16 @@
     </row>
     <row r="103" spans="1:18" ht="17" thickTop="1">
       <c r="A103" s="39" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B103" s="40">
         <v>82</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E103" s="40">
         <v>707</v>
@@ -16568,7 +16568,7 @@
       </c>
       <c r="I103" s="43"/>
       <c r="K103" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="L103" t="str">
         <f t="shared" si="5"/>
@@ -16601,16 +16601,16 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="39" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B104" s="40">
         <v>85</v>
       </c>
       <c r="C104" s="41" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D104" s="41" t="s">
         <v>2214</v>
-      </c>
-      <c r="D104" s="41" t="s">
-        <v>2215</v>
       </c>
       <c r="E104" s="40">
         <v>7</v>
@@ -16622,7 +16622,7 @@
       </c>
       <c r="I104" s="43"/>
       <c r="K104" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="L104" t="str">
         <f t="shared" si="5"/>
@@ -16655,16 +16655,16 @@
     </row>
     <row r="105" spans="1:18" ht="20">
       <c r="A105" s="39" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="B105" s="40">
         <v>97</v>
       </c>
       <c r="C105" s="41" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D105" s="41" t="s">
         <v>2216</v>
-      </c>
-      <c r="D105" s="41" t="s">
-        <v>2217</v>
       </c>
       <c r="E105" s="40">
         <v>15</v>
@@ -16676,7 +16676,7 @@
       </c>
       <c r="I105" s="43"/>
       <c r="K105" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="L105" t="str">
         <f t="shared" si="5"/>
@@ -16709,7 +16709,7 @@
     </row>
     <row r="106" spans="1:18" ht="17" thickBot="1">
       <c r="A106" s="69" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B106" s="70"/>
       <c r="C106" s="70"/>
@@ -16732,7 +16732,7 @@
     </row>
     <row r="107" spans="1:18" ht="18" thickTop="1" thickBot="1">
       <c r="A107" s="89" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B107" s="89"/>
       <c r="C107" s="89"/>
@@ -16755,7 +16755,7 @@
     </row>
     <row r="108" spans="1:18" ht="18" thickTop="1" thickBot="1">
       <c r="A108" s="89" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B108" s="89"/>
       <c r="C108" s="89"/>
@@ -28468,7 +28468,7 @@
         <v>1135</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>1140</v>
@@ -28624,7 +28624,7 @@
         <v>1134</v>
       </c>
       <c r="N4" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -28664,14 +28664,14 @@
         <v>130.7597146339057</v>
       </c>
       <c r="J5" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K5">
         <f>(K3*1000*G26+K4*1000*G52)/1000000</f>
         <v>73.510000000000005</v>
       </c>
       <c r="L5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -29018,7 +29018,7 @@
         <v>0.25</v>
       </c>
       <c r="M13" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -29058,7 +29058,7 @@
         <v>66.424817902305435</v>
       </c>
       <c r="J14" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="K14" s="15">
         <f>K13*H26+K13*H52</f>
@@ -29068,7 +29068,7 @@
         <v>863</v>
       </c>
       <c r="M14" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -29115,7 +29115,7 @@
       </c>
       <c r="L15" s="21"/>
       <c r="M15" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="N15" s="21"/>
     </row>
@@ -29156,13 +29156,13 @@
         <v>63.515298114245141</v>
       </c>
       <c r="J16" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="K16">
         <v>40</v>
       </c>
       <c r="M16" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -33738,12 +33738,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
@@ -33778,7 +33780,7 @@
         <v>1135</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>1140</v>
@@ -33811,7 +33813,7 @@
         <v>38°02′29″N 23°32′43″E</v>
       </c>
       <c r="E2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F2">
         <f>'Act 29 (cement clinker)'!J2</f>
@@ -33830,7 +33832,7 @@
         <v>14.106781123447078</v>
       </c>
       <c r="J2" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="K2" s="11">
         <v>0.8</v>
@@ -33857,7 +33859,7 @@
         <v>57°03′N 09°55′E</v>
       </c>
       <c r="E3" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F3">
         <f>'Act 29 (cement clinker)'!J3</f>
@@ -33876,7 +33878,7 @@
         <v>14.045139868178017</v>
       </c>
       <c r="J3" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K3" s="11">
         <v>1</v>
@@ -33903,7 +33905,7 @@
         <v>50°40′N 17°56′E</v>
       </c>
       <c r="E4" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F4">
         <f>'Act 29 (cement clinker)'!J4</f>
@@ -33928,7 +33930,7 @@
         <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M4" t="s">
         <v>1134</v>
@@ -33952,7 +33954,7 @@
         <v>38°56′N 9°01′ W</v>
       </c>
       <c r="E5" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F5">
         <f>'Act 29 (cement clinker)'!J5</f>
@@ -33974,10 +33976,10 @@
         <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -33998,7 +34000,7 @@
         <v>51°7′51″N 18°55′27″E</v>
       </c>
       <c r="E6" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F6">
         <f>'Act 29 (cement clinker)'!J6</f>
@@ -34020,10 +34022,10 @@
         <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="M6" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -34044,7 +34046,7 @@
         <v>39°22′09″N 22°56′27″ E</v>
       </c>
       <c r="E7" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F7">
         <f>'Act 29 (cement clinker)'!J7</f>
@@ -34063,17 +34065,17 @@
         <v>10.83558434929755</v>
       </c>
       <c r="J7" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="K7">
         <f>K6+K4</f>
         <v>165</v>
       </c>
       <c r="L7" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M7" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -34094,7 +34096,7 @@
         <v>52°28′18″N 13°47′04″E</v>
       </c>
       <c r="E8" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F8">
         <f>'Act 29 (cement clinker)'!J8</f>
@@ -34113,14 +34115,14 @@
         <v>10.395478867048894</v>
       </c>
       <c r="J8" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="K8">
         <f>K6+K5</f>
         <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -34141,7 +34143,7 @@
         <v>53°53′N 9°35′E</v>
       </c>
       <c r="E9" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F9">
         <f>'Act 29 (cement clinker)'!J9</f>
@@ -34160,14 +34162,14 @@
         <v>9.5705815276378576</v>
       </c>
       <c r="J9" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="K9" s="20">
         <f>K7/1000*G80*1000/1000000</f>
         <v>25.937999999999999</v>
       </c>
       <c r="L9" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -34188,7 +34190,7 @@
         <v>43° 33′ 0″ N, 16° 25′ 34″ E</v>
       </c>
       <c r="E10" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F10">
         <f>'Act 29 (cement clinker)'!J10</f>
@@ -34228,7 +34230,7 @@
         <v>40°12′40″N 8°25′45″W</v>
       </c>
       <c r="E11" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F11">
         <f>'Act 29 (cement clinker)'!J11</f>
@@ -34247,7 +34249,7 @@
         <v>9.2150651791118818</v>
       </c>
       <c r="J11" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="K11" s="21">
         <v>157.19999999999999</v>
@@ -34256,7 +34258,7 @@
         <v>1130</v>
       </c>
       <c r="M11" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -34277,7 +34279,7 @@
         <v>38.383622 N, 24.061125 E</v>
       </c>
       <c r="E12" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F12">
         <f>'Act 29 (cement clinker)'!J12</f>
@@ -34320,7 +34322,7 @@
         <v>52°28′59″N 1°53′37″W</v>
       </c>
       <c r="E13" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F13">
         <f>'Act 29 (cement clinker)'!J13</f>
@@ -34357,7 +34359,7 @@
         <v>40.65°N 22.9°E</v>
       </c>
       <c r="E14" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F14">
         <f>'Act 29 (cement clinker)'!J14</f>
@@ -34394,7 +34396,7 @@
         <v>51°21′0″N 10°28′0″E</v>
       </c>
       <c r="E15" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F15">
         <f>'Act 29 (cement clinker)'!J15</f>
@@ -34416,7 +34418,7 @@
         <v>1145</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -34437,7 +34439,7 @@
         <v>41°23′43″N 2°0′39″E</v>
       </c>
       <c r="E16" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F16">
         <f>'Act 29 (cement clinker)'!J16</f>
@@ -34462,10 +34464,10 @@
         <v>0.5</v>
       </c>
       <c r="L16" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -34486,7 +34488,7 @@
         <v>38°32′N 8°53′W</v>
       </c>
       <c r="E17" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F17">
         <f>'Act 29 (cement clinker)'!J17</f>
@@ -34505,7 +34507,7 @@
         <v>7.8106828135420674</v>
       </c>
       <c r="J17" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="K17" s="15">
         <f>(K8)/K7*K16*H80</f>
@@ -34533,7 +34535,7 @@
         <v>51°9′N 23°29′E</v>
       </c>
       <c r="E18" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F18">
         <f>'Act 29 (cement clinker)'!J18</f>
@@ -34561,7 +34563,7 @@
         <v>865</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -34582,7 +34584,7 @@
         <v>41°19′23″N 1°39′53″E</v>
       </c>
       <c r="E19" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F19">
         <f>'Act 29 (cement clinker)'!J19</f>
@@ -34601,16 +34603,16 @@
         <v>7.4961489070139482</v>
       </c>
       <c r="J19" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="K19">
         <v>365</v>
       </c>
       <c r="L19" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -34631,7 +34633,7 @@
         <v>49°12′N 12°2′E</v>
       </c>
       <c r="E20" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F20">
         <f>'Act 29 (cement clinker)'!J20</f>
@@ -34668,7 +34670,7 @@
         <v>48°06′56″N 1°01′29″W</v>
       </c>
       <c r="E21" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F21">
         <f>'Act 29 (cement clinker)'!J21</f>
@@ -34693,7 +34695,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -34714,7 +34716,7 @@
         <v>50°32′27″N, 6°33′16″E</v>
       </c>
       <c r="E22" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F22">
         <f>'Act 29 (cement clinker)'!J22</f>
@@ -34733,7 +34735,7 @@
         <v>7.2151007540113046</v>
       </c>
       <c r="J22" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="K22" s="15">
         <v>0</v>
@@ -34757,7 +34759,7 @@
         <v>38°19′15″N, 21°51′20″E</v>
       </c>
       <c r="E23" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F23">
         <f>'Act 29 (cement clinker)'!J23</f>
@@ -34800,7 +34802,7 @@
         <v>48°22′32″N 9°43′57″E</v>
       </c>
       <c r="E24" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F24">
         <f>'Act 29 (cement clinker)'!J24</f>
@@ -34837,7 +34839,7 @@
         <v>50°48′57″N 20°33′19″E</v>
       </c>
       <c r="E25" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F25">
         <f>'Act 29 (cement clinker)'!J25</f>
@@ -34874,7 +34876,7 @@
         <v>53°39′18″N 6°25′00″W</v>
       </c>
       <c r="E26" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F26">
         <f>'Act 29 (cement clinker)'!J26</f>
@@ -34911,7 +34913,7 @@
         <v>45°17′N 25°5′E</v>
       </c>
       <c r="E27" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27">
         <f>'Act 29 (cement clinker)'!J27</f>
@@ -34948,7 +34950,7 @@
         <v>48°45′37″N 4°34′21″E</v>
       </c>
       <c r="E28" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F28">
         <f>'Act 29 (cement clinker)'!J28</f>
@@ -34985,7 +34987,7 @@
         <v>37°0′N 1°53′W</v>
       </c>
       <c r="E29" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F29">
         <f>'Act 29 (cement clinker)'!J29</f>
@@ -35022,7 +35024,7 @@
         <v>48.439615465693755N, 17.19455025000002E</v>
       </c>
       <c r="E30" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F30">
         <f>'Act 29 (cement clinker)'!J30</f>
@@ -35059,7 +35061,7 @@
         <v>47°2′N 22°23′E</v>
       </c>
       <c r="E31" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F31">
         <f>'Act 29 (cement clinker)'!J31</f>
@@ -35096,7 +35098,7 @@
         <v>52°10′30″N 7°52′0″E</v>
       </c>
       <c r="E32" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F32">
         <f>'Act 29 (cement clinker)'!J32</f>
@@ -35133,7 +35135,7 @@
         <v>40°35′43″N 0°34′14″E</v>
       </c>
       <c r="E33" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F33">
         <f>'Act 29 (cement clinker)'!J33</f>
@@ -35170,7 +35172,7 @@
         <v>38°23′47″N 0°31′31″W</v>
       </c>
       <c r="E34" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F34">
         <f>'Act 29 (cement clinker)'!J34</f>
@@ -35207,7 +35209,7 @@
         <v>47°47′56″N 12°10′3″E</v>
       </c>
       <c r="E35" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F35">
         <f>'Act 29 (cement clinker)'!J35</f>
@@ -35244,7 +35246,7 @@
         <v>36°43′10″N 4°25′12″W</v>
       </c>
       <c r="E36" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F36">
         <f>'Act 29 (cement clinker)'!J36</f>
@@ -35281,7 +35283,7 @@
         <v>42°48′N 5°37′W</v>
       </c>
       <c r="E37" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F37">
         <f>'Act 29 (cement clinker)'!J37</f>
@@ -35318,7 +35320,7 @@
         <v>51°48′N 11°44′E</v>
       </c>
       <c r="E38" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F38">
         <f>'Act 29 (cement clinker)'!J38</f>
@@ -35355,7 +35357,7 @@
         <v xml:space="preserve">50°47′53″N 1°46′32″E </v>
       </c>
       <c r="E39" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F39">
         <f>'Act 29 (cement clinker)'!J39</f>
@@ -35392,7 +35394,7 @@
         <v>43°32′55″N 5°47′23″W</v>
       </c>
       <c r="E40" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F40">
         <f>'Act 29 (cement clinker)'!J40</f>
@@ -35429,7 +35431,7 @@
         <v>44°15′01″N 28°15′41″E</v>
       </c>
       <c r="E41" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F41">
         <f>'Act 29 (cement clinker)'!J41</f>
@@ -35466,7 +35468,7 @@
         <v>49°35′32″N 8°2′54″E</v>
       </c>
       <c r="E42" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F42">
         <f>'Act 29 (cement clinker)'!J42</f>
@@ -35503,7 +35505,7 @@
         <v>40°1′49″N 3°54′37″W</v>
       </c>
       <c r="E43" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F43">
         <f>'Act 29 (cement clinker)'!J43</f>
@@ -35540,7 +35542,7 @@
         <v>51°39′N 08°31′E</v>
       </c>
       <c r="E44" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F44">
         <f>'Act 29 (cement clinker)'!J44</f>
@@ -35577,7 +35579,7 @@
         <v>45°59′N 25°18′E</v>
       </c>
       <c r="E45" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F45">
         <f>'Act 29 (cement clinker)'!J45</f>
@@ -35614,7 +35616,7 @@
         <v>52°18′58″N 9°57′51″E</v>
       </c>
       <c r="E46" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F46">
         <f>'Act 29 (cement clinker)'!J46</f>
@@ -35651,7 +35653,7 @@
         <v>51°45′18″N 8°02′25″E</v>
       </c>
       <c r="E47" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F47">
         <f>'Act 29 (cement clinker)'!J47</f>
@@ -35688,7 +35690,7 @@
         <v>46°49′38″N 0°08′11″W</v>
       </c>
       <c r="E48" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F48">
         <f>'Act 29 (cement clinker)'!J48</f>
@@ -35725,7 +35727,7 @@
         <v>48°46′N 10°40′E</v>
       </c>
       <c r="E49" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F49">
         <f>'Act 29 (cement clinker)'!J49</f>
@@ -35762,7 +35764,7 @@
         <v>53°56′N 7°29′W</v>
       </c>
       <c r="E50" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F50">
         <f>'Act 29 (cement clinker)'!J50</f>
@@ -35799,7 +35801,7 @@
         <v>39°25′10″N 0°47′26″W</v>
       </c>
       <c r="E51" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F51">
         <f>'Act 29 (cement clinker)'!J51</f>
@@ -35836,7 +35838,7 @@
         <v>39°40′35″N 0°16′24″W</v>
       </c>
       <c r="E52" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F52">
         <f>'Act 29 (cement clinker)'!J52</f>
@@ -35873,7 +35875,7 @@
         <v>47°58′N 16°36′E</v>
       </c>
       <c r="E53" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F53">
         <f>'Act 29 (cement clinker)'!J53</f>
@@ -35910,7 +35912,7 @@
         <v>46°54′39″N 26°5′28″E</v>
       </c>
       <c r="E54" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F54">
         <f>'Act 29 (cement clinker)'!J54</f>
@@ -35947,7 +35949,7 @@
         <v>49°48′N 9°36′E</v>
       </c>
       <c r="E55" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F55">
         <f>'Act 29 (cement clinker)'!J55</f>
@@ -35984,7 +35986,7 @@
         <v>49°57′37″N 9°46′20″E</v>
       </c>
       <c r="E56" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F56">
         <f>'Act 29 (cement clinker)'!J56</f>
@@ -36021,7 +36023,7 @@
         <v>51°37′N 08°21′E</v>
       </c>
       <c r="E57" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F57">
         <f>'Act 29 (cement clinker)'!J57</f>
@@ -36058,7 +36060,7 @@
         <v>49°02′N 18°17′E</v>
       </c>
       <c r="E58" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F58">
         <f>'Act 29 (cement clinker)'!J58</f>
@@ -36095,7 +36097,7 @@
         <v>49°29′N 0°06′E</v>
       </c>
       <c r="E59" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F59">
         <f>'Act 29 (cement clinker)'!J59</f>
@@ -36132,7 +36134,7 @@
         <v>45°7′20″N 25°25′6″E</v>
       </c>
       <c r="E60" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F60">
         <f>'Act 29 (cement clinker)'!J60</f>
@@ -36166,10 +36168,10 @@
       </c>
       <c r="D61" t="str">
         <f>'Act 29 (cement clinker)'!AA61</f>
-        <v>42°32′40″N 6°46′53″E</v>
+        <v>42.553405N -6.769661E</v>
       </c>
       <c r="E61" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F61">
         <f>'Act 29 (cement clinker)'!J61</f>
@@ -36206,7 +36208,7 @@
         <v>48°40′34″N 10°09′16″E</v>
       </c>
       <c r="E62" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F62">
         <f>'Act 29 (cement clinker)'!J62</f>
@@ -36243,7 +36245,7 @@
         <v>36°57′N 2°29′W</v>
       </c>
       <c r="E63" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F63">
         <f>'Act 29 (cement clinker)'!J63</f>
@@ -36280,7 +36282,7 @@
         <v>51°50′12″N 8°1′32″E</v>
       </c>
       <c r="E64" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F64">
         <f>'Act 29 (cement clinker)'!J64</f>
@@ -36317,7 +36319,7 @@
         <v>52°22′N 9°43′E</v>
       </c>
       <c r="E65" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F65">
         <f>'Act 29 (cement clinker)'!J65</f>
@@ -36354,7 +36356,7 @@
         <v>45°12′48″N 0°22′07″W</v>
       </c>
       <c r="E66" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F66">
         <f>'Act 29 (cement clinker)'!J66</f>
@@ -36391,7 +36393,7 @@
         <v>45°36′30″N 0°06′03″E</v>
       </c>
       <c r="E67" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F67">
         <f>'Act 29 (cement clinker)'!J67</f>
@@ -36428,7 +36430,7 @@
         <v>52°28′59″N 1°53′37″W</v>
       </c>
       <c r="E68" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F68">
         <f>'Act 29 (cement clinker)'!J68</f>
@@ -36465,7 +36467,7 @@
         <v>48°19′41″N 9°43′14″E</v>
       </c>
       <c r="E69" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F69">
         <f>'Act 29 (cement clinker)'!J69</f>
@@ -36502,7 +36504,7 @@
         <v>51°37′N 08°21′E</v>
       </c>
       <c r="E70" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F70">
         <f>'Act 29 (cement clinker)'!J70</f>
@@ -36539,7 +36541,7 @@
         <v>45.49°N 18.09°E</v>
       </c>
       <c r="E71" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F71">
         <f>'Act 29 (cement clinker)'!J71</f>
@@ -36576,7 +36578,7 @@
         <v>49°0′42″N 8°36′27″E</v>
       </c>
       <c r="E72" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F72">
         <f>'Act 29 (cement clinker)'!J72</f>
@@ -36613,7 +36615,7 @@
         <v>45°55′1″N 22°53′23″E</v>
       </c>
       <c r="E73" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F73">
         <f>'Act 29 (cement clinker)'!J73</f>
@@ -36650,7 +36652,7 @@
         <v>36°42′N 6°7′W</v>
       </c>
       <c r="E74" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F74">
         <f>'Act 29 (cement clinker)'!J74</f>
@@ -36687,7 +36689,7 @@
         <v>44°32′45″N 4°40′59″E</v>
       </c>
       <c r="E75" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F75">
         <f>'Act 29 (cement clinker)'!J75</f>
@@ -36724,7 +36726,7 @@
         <v>43°48′29″N 4°38′39″E</v>
       </c>
       <c r="E76" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F76">
         <f>'Act 29 (cement clinker)'!J76</f>
@@ -36761,7 +36763,7 @@
         <v>49°20′53″N 08°41′28″E</v>
       </c>
       <c r="E77" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F77">
         <f>'Act 29 (cement clinker)'!J77</f>
@@ -36798,7 +36800,7 @@
         <v>50°51′N 5°41′E</v>
       </c>
       <c r="E78" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F78">
         <f>'Act 29 (cement clinker)'!J78</f>
@@ -36835,7 +36837,7 @@
         <v>53°30′N 7°30′W</v>
       </c>
       <c r="E79" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F79">
         <f>'Act 29 (cement clinker)'!J79</f>
@@ -36887,8 +36889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AB153"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView tabSelected="1" topLeftCell="P18" workbookViewId="0">
+      <selection activeCell="AB59" sqref="AB59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38783,7 +38785,7 @@
         <v>1696</v>
       </c>
       <c r="AA23" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -39359,7 +39361,7 @@
         <v>1928</v>
       </c>
       <c r="AA30" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -41933,7 +41935,7 @@
         <v>1805</v>
       </c>
       <c r="AA61" t="s">
-        <v>1995</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -42017,7 +42019,7 @@
         <v>1737</v>
       </c>
       <c r="AA62" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -42101,7 +42103,7 @@
         <v>1808</v>
       </c>
       <c r="AA63" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -42185,7 +42187,7 @@
         <v>1570</v>
       </c>
       <c r="AA64" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -42257,7 +42259,7 @@
         <v>384</v>
       </c>
       <c r="V65" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="W65" t="s">
         <v>1627</v>
@@ -42269,7 +42271,7 @@
         <v>1628</v>
       </c>
       <c r="AA65" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -42347,7 +42349,7 @@
         <v>1836</v>
       </c>
       <c r="AA66" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -42428,7 +42430,7 @@
         <v>1839</v>
       </c>
       <c r="AA67" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -42596,7 +42598,7 @@
         <v>1740</v>
       </c>
       <c r="AA69" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -42812,7 +42814,7 @@
         <v>1745</v>
       </c>
       <c r="AA72" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -42893,7 +42895,7 @@
         <v>1924</v>
       </c>
       <c r="AA73" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -42977,7 +42979,7 @@
         <v>1811</v>
       </c>
       <c r="AA74" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -43058,7 +43060,7 @@
         <v>1842</v>
       </c>
       <c r="AA75" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -43139,7 +43141,7 @@
         <v>1846</v>
       </c>
       <c r="AA76" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -43223,7 +43225,7 @@
         <v>1584</v>
       </c>
       <c r="AA77" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -43304,7 +43306,7 @@
         <v>1869</v>
       </c>
       <c r="AA78" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="79" spans="1:28" s="23" customFormat="1">
@@ -43387,7 +43389,7 @@
       </c>
       <c r="Z79"/>
       <c r="AA79" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="AB79"/>
     </row>
@@ -46870,8 +46872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
@@ -46890,7 +46892,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="14" customFormat="1">
       <c r="A1" s="14" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>856</v>
@@ -46902,31 +46904,31 @@
         <v>330</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>2244</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>2245</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>2246</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>2247</v>
-      </c>
       <c r="J1" s="14" t="s">
+        <v>2325</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>2326</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>2327</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>2328</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>2329</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>742</v>
@@ -46935,12 +46937,12 @@
         <v>1135</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B2" t="s">
         <v>384</v>
@@ -47010,16 +47012,16 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C3" t="s">
         <v>2212</v>
       </c>
-      <c r="C3" t="s">
-        <v>2213</v>
-      </c>
       <c r="D3" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="E3">
         <v>707</v>
@@ -47073,21 +47075,21 @@
         <v>0.76131422129167337</v>
       </c>
       <c r="U3" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B4" t="s">
         <v>670</v>
       </c>
       <c r="C4" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D4" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="E4">
         <v>637</v>
@@ -47134,30 +47136,30 @@
       </c>
       <c r="Q4" s="20"/>
       <c r="R4" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="S4">
         <v>3300</v>
       </c>
       <c r="T4" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="U4" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D5" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E5">
         <f>SUM(F5:I5)</f>
@@ -47205,30 +47207,30 @@
       </c>
       <c r="Q5" s="20"/>
       <c r="R5" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="S5">
         <v>2550</v>
       </c>
       <c r="T5" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="U5" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D6" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="E6">
         <v>460</v>
@@ -47275,30 +47277,30 @@
       </c>
       <c r="Q6" s="20"/>
       <c r="R6" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="S6">
         <v>2640</v>
       </c>
       <c r="T6" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="U6" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B7" t="s">
         <v>384</v>
       </c>
       <c r="C7" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D7" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E7">
         <v>480</v>
@@ -47345,24 +47347,24 @@
       </c>
       <c r="Q7" s="20"/>
       <c r="R7" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T7" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B8" t="s">
         <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D8" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E8">
         <v>385</v>
@@ -47411,13 +47413,13 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D9" t="str">
         <f>D7</f>
@@ -47473,16 +47475,16 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D10" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E10">
         <v>360</v>
@@ -47529,16 +47531,16 @@
       </c>
       <c r="Q10" s="20"/>
       <c r="R10" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="S10">
         <v>9454</v>
       </c>
       <c r="T10" t="s">
+        <v>2314</v>
+      </c>
+      <c r="U10" t="s">
         <v>2315</v>
-      </c>
-      <c r="U10" t="s">
-        <v>2316</v>
       </c>
       <c r="V10">
         <v>2013</v>
@@ -47546,16 +47548,16 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B11" t="s">
         <v>384</v>
       </c>
       <c r="C11" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D11" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E11">
         <v>360</v>
@@ -47602,22 +47604,22 @@
       </c>
       <c r="Q11" s="20"/>
       <c r="R11" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="S11">
         <f>0.26*S10</f>
         <v>2458.04</v>
       </c>
       <c r="T11" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="U11" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -47673,31 +47675,31 @@
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="S12">
         <f>0.14*S10</f>
         <v>1323.5600000000002</v>
       </c>
       <c r="T12" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="U12" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D13" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="E13">
         <v>323</v>
@@ -47744,31 +47746,31 @@
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="S13">
         <f>S10-S11-S12</f>
         <v>5672.4</v>
       </c>
       <c r="T13" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="U13" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B14" t="s">
         <v>701</v>
       </c>
       <c r="C14" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D14" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="E14">
         <v>291</v>
@@ -47820,16 +47822,16 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B15" t="s">
         <v>384</v>
       </c>
       <c r="C15" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D15" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="E15">
         <v>260</v>
@@ -47884,16 +47886,16 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B16" t="s">
         <v>384</v>
       </c>
       <c r="C16" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D16" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="E16">
         <v>260</v>
@@ -47940,7 +47942,7 @@
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="S16" s="15">
         <v>0</v>
@@ -47952,16 +47954,16 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B17" t="s">
         <v>186</v>
       </c>
       <c r="C17" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D17" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E17">
         <v>260</v>
@@ -48015,16 +48017,16 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B18" t="s">
         <v>384</v>
       </c>
       <c r="C18" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D18" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E18">
         <v>250</v>
@@ -48071,21 +48073,21 @@
       </c>
       <c r="Q18" s="20"/>
       <c r="R18" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B19" t="s">
         <v>384</v>
       </c>
       <c r="C19" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="D19" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="E19">
         <v>250</v>
@@ -48134,16 +48136,16 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B20" t="s">
         <v>515</v>
       </c>
       <c r="C20" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D20" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E20">
         <v>218</v>
@@ -48190,30 +48192,30 @@
       </c>
       <c r="Q20" s="20"/>
       <c r="R20" t="s">
+        <v>2309</v>
+      </c>
+      <c r="S20" s="12">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>2311</v>
+      </c>
+      <c r="V20" t="s">
         <v>2310</v>
-      </c>
-      <c r="S20" s="12">
-        <v>0</v>
-      </c>
-      <c r="U20" t="s">
-        <v>2312</v>
-      </c>
-      <c r="V20" t="s">
-        <v>2311</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B21" t="s">
         <v>384</v>
       </c>
       <c r="C21" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="D21" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="E21">
         <v>220</v>
@@ -48260,27 +48262,27 @@
       </c>
       <c r="Q21" s="20"/>
       <c r="R21" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="S21" s="11">
         <v>0.67</v>
       </c>
       <c r="U21" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B22" t="s">
         <v>679</v>
       </c>
       <c r="C22" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D22" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E22">
         <v>214</v>
@@ -48327,7 +48329,7 @@
       </c>
       <c r="Q22" s="20"/>
       <c r="R22" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="S22" s="11">
         <v>0.67</v>
@@ -48335,16 +48337,16 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B23" t="s">
         <v>515</v>
       </c>
       <c r="C23" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="D23" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E23">
         <v>190</v>
@@ -48391,7 +48393,7 @@
       </c>
       <c r="Q23" s="20"/>
       <c r="R23" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="S23">
         <f>S20*G76</f>
@@ -48403,16 +48405,16 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B24" t="s">
         <v>384</v>
       </c>
       <c r="C24" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="D24" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="E24">
         <v>180</v>
@@ -48459,7 +48461,7 @@
       </c>
       <c r="Q24" s="20"/>
       <c r="R24" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="S24">
         <f>S21*F76</f>
@@ -48471,16 +48473,16 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D25" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E25">
         <v>174</v>
@@ -48527,7 +48529,7 @@
       </c>
       <c r="Q25" s="20"/>
       <c r="R25" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="S25">
         <f>S22*H76</f>
@@ -48539,16 +48541,16 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B26" t="s">
         <v>384</v>
       </c>
       <c r="C26" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D26" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E26">
         <v>167</v>
@@ -48604,21 +48606,21 @@
         <v>865</v>
       </c>
       <c r="U26" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B27" t="s">
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D27" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E27">
         <v>170</v>
@@ -48665,7 +48667,7 @@
       </c>
       <c r="Q27" s="20"/>
       <c r="R27" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="S27">
         <v>40</v>
@@ -48673,16 +48675,16 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B28" t="s">
         <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="D28" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="E28">
         <v>150</v>
@@ -48731,16 +48733,16 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B29" t="s">
         <v>384</v>
       </c>
       <c r="C29" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D29" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="E29">
         <v>137</v>
@@ -48789,16 +48791,16 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D30" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="E30">
         <v>135</v>
@@ -48847,16 +48849,16 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B31" t="s">
         <v>384</v>
       </c>
       <c r="C31" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D31" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="E31">
         <v>125</v>
@@ -48905,16 +48907,16 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B32" t="s">
         <v>679</v>
       </c>
       <c r="C32" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D32" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="E32">
         <v>125</v>
@@ -48963,16 +48965,16 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B33" t="s">
         <v>189</v>
       </c>
       <c r="C33" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D33" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E33">
         <v>120</v>
@@ -49021,7 +49023,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B34" t="s">
         <v>670</v>
@@ -49030,7 +49032,7 @@
         <v>1047</v>
       </c>
       <c r="D34" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="E34">
         <v>121</v>
@@ -49079,16 +49081,16 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B35" t="s">
         <v>384</v>
       </c>
       <c r="C35" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D35" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E35">
         <v>99</v>
@@ -49137,16 +49139,16 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B36" t="s">
         <v>701</v>
       </c>
       <c r="C36" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D36" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="E36">
         <v>93</v>
@@ -49195,16 +49197,16 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B37" t="s">
         <v>515</v>
       </c>
       <c r="C37" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D37" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="E37">
         <v>88</v>
@@ -49253,16 +49255,16 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B38" t="s">
         <v>670</v>
       </c>
       <c r="C38" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="D38" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E38">
         <v>89</v>
@@ -49311,16 +49313,16 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B39" t="s">
         <v>730</v>
       </c>
       <c r="C39" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D39" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E39">
         <v>76</v>
@@ -49369,16 +49371,16 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B40" t="s">
         <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D40" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E40">
         <v>73</v>
@@ -49427,16 +49429,16 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D41" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E41">
         <v>75</v>
@@ -49485,16 +49487,16 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B42" t="s">
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D42" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E42">
         <v>72</v>
@@ -49543,16 +49545,16 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B43" t="s">
         <v>694</v>
       </c>
       <c r="C43" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D43" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="E43">
         <v>116</v>
@@ -49601,16 +49603,16 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
         <v>2058</v>
       </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2059</v>
-      </c>
       <c r="D44" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="E44">
         <v>70</v>
@@ -49659,16 +49661,16 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B45" t="s">
         <v>515</v>
       </c>
       <c r="C45" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="D45" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="E45">
         <v>63</v>
@@ -49717,16 +49719,16 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B46" t="s">
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D46" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="E46">
         <v>61</v>
@@ -49775,16 +49777,16 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="83" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B47" s="83" t="s">
         <v>384</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D47" s="83" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="E47" s="83">
         <v>50</v>
@@ -49833,16 +49835,16 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="83" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B48" s="83" t="s">
         <v>515</v>
       </c>
       <c r="C48" s="83" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="D48" s="83" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="E48" s="83">
         <v>48</v>
@@ -49891,16 +49893,16 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="83" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B49" s="83" t="s">
         <v>384</v>
       </c>
       <c r="C49" s="83" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D49" s="83" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="E49" s="83">
         <v>45</v>
@@ -49949,16 +49951,16 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="83" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B50" s="83" t="s">
         <v>186</v>
       </c>
       <c r="C50" s="83" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="E50" s="83">
         <v>45</v>
@@ -50007,16 +50009,16 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="83" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B51" s="83" t="s">
         <v>92</v>
       </c>
       <c r="C51" s="83" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="E51" s="83">
         <v>42</v>
@@ -50065,16 +50067,16 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="83" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B52" s="83" t="s">
         <v>50</v>
       </c>
       <c r="C52" s="83" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D52" s="83" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="E52" s="83">
         <v>40</v>
@@ -50123,16 +50125,16 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="83" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B53" s="83" t="s">
         <v>92</v>
       </c>
       <c r="C53" s="83" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D53" s="83" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E53" s="83">
         <v>39</v>
@@ -50181,16 +50183,16 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="83" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B54" s="83" t="s">
         <v>515</v>
       </c>
       <c r="C54" s="83" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="D54" s="83" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="E54" s="83">
         <v>34</v>
@@ -50239,16 +50241,16 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="83" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B55" s="83" t="s">
         <v>515</v>
       </c>
       <c r="C55" s="83" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="D55" s="83" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E55" s="83">
         <v>31</v>
@@ -50297,16 +50299,16 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="83" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B56" s="83" t="s">
         <v>515</v>
       </c>
       <c r="C56" s="83" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="D56" s="83" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="E56" s="83">
         <v>30</v>
@@ -50355,16 +50357,16 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="86" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B57" s="86" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C57" s="86" t="s">
         <v>2209</v>
       </c>
-      <c r="B57" s="86" t="s">
-        <v>2221</v>
-      </c>
-      <c r="C57" s="86" t="s">
-        <v>2210</v>
-      </c>
       <c r="D57" s="86" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="E57" s="86">
         <v>27</v>
@@ -50413,16 +50415,16 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="83" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B58" s="83" t="s">
         <v>694</v>
       </c>
       <c r="C58" s="83" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D58" s="83" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E58" s="83">
         <v>26</v>
@@ -50471,16 +50473,16 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="83" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B59" s="83" t="s">
         <v>92</v>
       </c>
       <c r="C59" s="83" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D59" s="83" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="E59" s="83">
         <v>25</v>
@@ -50529,16 +50531,16 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="83" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B60" s="83" t="s">
         <v>92</v>
       </c>
       <c r="C60" s="83" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D60" s="83" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="E60" s="83">
         <v>25</v>
@@ -50587,16 +50589,16 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="83" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B61" s="83" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="83" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D61" s="83" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E61" s="83">
         <v>23</v>
@@ -50645,16 +50647,16 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="83" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B62" s="83" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="83" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D62" s="83" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E62" s="83">
         <v>20</v>
@@ -50703,16 +50705,16 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="83" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B63" s="83" t="s">
         <v>631</v>
       </c>
       <c r="C63" s="83" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D63" s="83" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E63" s="83">
         <v>20</v>
@@ -50761,16 +50763,16 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="83" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B64" s="83" t="s">
         <v>92</v>
       </c>
       <c r="C64" s="83" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D64" s="83" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="E64" s="83">
         <v>20</v>
@@ -50819,16 +50821,16 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="83" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B65" s="83" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="83" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D65" s="83" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E65" s="83">
         <v>18</v>
@@ -50877,16 +50879,16 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="83" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B66" s="83" t="s">
         <v>218</v>
       </c>
       <c r="C66" s="83" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D66" s="83" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E66" s="83">
         <v>16</v>
@@ -50935,16 +50937,16 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="83" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B67" s="83" t="s">
         <v>384</v>
       </c>
       <c r="C67" s="83" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="D67" s="83" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="E67" s="83">
         <v>15</v>
@@ -50993,16 +50995,16 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="83" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B68" s="83" t="s">
         <v>515</v>
       </c>
       <c r="C68" s="83" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D68" s="83" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="E68" s="83">
         <v>15</v>
@@ -51051,16 +51053,16 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="83" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B69" s="83" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C69" s="83" t="s">
         <v>2216</v>
       </c>
-      <c r="B69" s="83" t="s">
-        <v>2212</v>
-      </c>
-      <c r="C69" s="83" t="s">
-        <v>2217</v>
-      </c>
       <c r="D69" s="83" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="E69" s="83">
         <v>15</v>
@@ -51109,16 +51111,16 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="83" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B70" s="83" t="s">
         <v>186</v>
       </c>
       <c r="C70" s="83" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D70" s="83" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="E70" s="83">
         <v>10</v>
@@ -51167,16 +51169,16 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="83" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B71" s="83" t="s">
         <v>1474</v>
       </c>
       <c r="C71" s="83" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D71" s="83" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E71" s="83">
         <v>9</v>
@@ -51225,16 +51227,16 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="83" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B72" s="83" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C72" s="83" t="s">
         <v>2214</v>
       </c>
-      <c r="B72" s="83" t="s">
-        <v>2212</v>
-      </c>
-      <c r="C72" s="83" t="s">
-        <v>2215</v>
-      </c>
       <c r="D72" s="83" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="E72" s="83">
         <v>7</v>
@@ -51283,13 +51285,13 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="83" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B73" s="83" t="s">
         <v>631</v>
       </c>
       <c r="C73" s="83" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D73" s="83" t="s">
         <v>1093</v>
@@ -51341,16 +51343,16 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="83" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B74" s="83" t="s">
         <v>60</v>
       </c>
       <c r="C74" s="83" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D74" s="83" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E74" s="83">
         <v>42</v>
@@ -51399,16 +51401,16 @@
     </row>
     <row r="75" spans="1:17" s="28" customFormat="1">
       <c r="A75" s="83" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B75" s="83" t="s">
         <v>384</v>
       </c>
       <c r="C75" s="83" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D75" s="83" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="E75" s="83">
         <v>210</v>
